--- a/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级项目下达者打分.xlsx
+++ b/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级项目下达者打分.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\需求优先级\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\需求优先级\用户代表打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8328B92-3C29-4248-93F4-DADDA02E9B90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26F6C9B-36B1-4366-91C9-5981EFF59B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-622" yWindow="5010" windowWidth="22215" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>用户类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,42 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看博客首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表博客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表帖子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看博客详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看帖子详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看问答首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看问答详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看论坛首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5代表影响有点重要，6代表影响较为重要，7代表影响重要，8代表影响十分重要，9代表影响超级重要。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +56,18 @@
   </si>
   <si>
     <t>手机号邮箱实名注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问答交流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -439,12 +415,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -466,7 +442,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -474,7 +456,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -484,60 +472,24 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
         <v>8</v>
       </c>
     </row>

--- a/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级项目下达者打分.xlsx
+++ b/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级项目下达者打分.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\需求优先级\用户代表打分\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\仓库\受控文件\需求优先级\用户代表打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26F6C9B-36B1-4366-91C9-5981EFF59B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B992BB57-66A8-4B77-9183-C01BDE57DACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-622" yWindow="5010" windowWidth="22215" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="1470" windowWidth="22215" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>用户类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>问答交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应及时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作方便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面美观</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -493,6 +505,48 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
